--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R52e0d05972ec4d27"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rb34d7d69957a4acd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="Rb34d7d69957a4acd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R4754974dd5af4a34"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/87_RowHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R4754974dd5af4a34"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HiddenRows" sheetId="1" r:id="R4ee30455078e4ad5"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
